--- a/整合結果/EPU匯出結果/EPU_每日指數.xlsx
+++ b/整合結果/EPU匯出結果/EPU_每日指數.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>25</v>
+        <v>33.33</v>
       </c>
       <c r="E2" t="n">
-        <v>162.45</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3">
@@ -539,7 +539,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -558,102 +558,102 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>27.78</v>
+        <v>12.5</v>
       </c>
       <c r="E7" t="n">
-        <v>180.52</v>
+        <v>70.88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>33.33</v>
+        <v>16.67</v>
       </c>
       <c r="E8" t="n">
-        <v>216.58</v>
+        <v>94.53</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>12.5</v>
+        <v>16.67</v>
       </c>
       <c r="E9" t="n">
-        <v>81.23</v>
+        <v>94.53</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>9.09</v>
+        <v>14.29</v>
       </c>
       <c r="E10" t="n">
-        <v>59.07</v>
+        <v>81.03</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>16.67</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>94.53</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-06-07</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -666,159 +666,387 @@
         <v>14.29</v>
       </c>
       <c r="E12" t="n">
-        <v>92.86</v>
+        <v>81.03</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C13" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>40.62</v>
+        <v>46.15</v>
       </c>
       <c r="E13" t="n">
-        <v>263.96</v>
+        <v>261.7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>7.14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>22.73</v>
+        <v>28.57</v>
       </c>
       <c r="E15" t="n">
-        <v>147.7</v>
+        <v>162.01</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93</v>
+        <v>9</v>
       </c>
       <c r="C16" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>19.35</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>125.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>296</v>
+        <v>24</v>
       </c>
       <c r="C17" t="n">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="D17" t="n">
-        <v>19.26</v>
+        <v>37.5</v>
       </c>
       <c r="E17" t="n">
-        <v>125.15</v>
+        <v>212.65</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-06-14</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>315</v>
+        <v>13</v>
       </c>
       <c r="C18" t="n">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>21.59</v>
+        <v>46.15</v>
       </c>
       <c r="E18" t="n">
-        <v>140.3</v>
+        <v>261.7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-06-15</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>306</v>
+        <v>11</v>
       </c>
       <c r="C19" t="n">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>14.71</v>
+        <v>18.18</v>
       </c>
       <c r="E19" t="n">
-        <v>95.59</v>
+        <v>103.09</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>17</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="E20" t="n">
+        <v>66.69</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-06-06</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>7</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-06-07</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>9</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="E22" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-06-09</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>34</v>
+      </c>
+      <c r="C23" t="n">
+        <v>13</v>
+      </c>
+      <c r="D23" t="n">
+        <v>38.24</v>
+      </c>
+      <c r="E23" t="n">
+        <v>216.85</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>33</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3</v>
+      </c>
+      <c r="D24" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="E24" t="n">
+        <v>51.55</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>25</v>
+      </c>
+      <c r="C25" t="n">
+        <v>7</v>
+      </c>
+      <c r="D25" t="n">
+        <v>28</v>
+      </c>
+      <c r="E25" t="n">
+        <v>158.78</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>98</v>
+      </c>
+      <c r="C26" t="n">
+        <v>19</v>
+      </c>
+      <c r="D26" t="n">
+        <v>19.39</v>
+      </c>
+      <c r="E26" t="n">
+        <v>109.95</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>299</v>
+      </c>
+      <c r="C27" t="n">
+        <v>58</v>
+      </c>
+      <c r="D27" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="E27" t="n">
+        <v>110.01</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-06-14</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>327</v>
+      </c>
+      <c r="C28" t="n">
+        <v>71</v>
+      </c>
+      <c r="D28" t="n">
+        <v>21.71</v>
+      </c>
+      <c r="E28" t="n">
+        <v>123.11</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>333</v>
+      </c>
+      <c r="C29" t="n">
+        <v>51</v>
+      </c>
+      <c r="D29" t="n">
+        <v>15.32</v>
+      </c>
+      <c r="E29" t="n">
+        <v>86.88</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
           <t>2025-06-16</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>444</v>
-      </c>
-      <c r="C20" t="n">
-        <v>111</v>
-      </c>
-      <c r="D20" t="n">
-        <v>25</v>
-      </c>
-      <c r="E20" t="n">
-        <v>162.45</v>
+      <c r="B30" t="n">
+        <v>653</v>
+      </c>
+      <c r="C30" t="n">
+        <v>148</v>
+      </c>
+      <c r="D30" t="n">
+        <v>22.66</v>
+      </c>
+      <c r="E30" t="n">
+        <v>128.5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>60</v>
+      </c>
+      <c r="C31" t="n">
+        <v>10</v>
+      </c>
+      <c r="D31" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="E31" t="n">
+        <v>94.53</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>339</v>
+      </c>
+      <c r="C32" t="n">
+        <v>72</v>
+      </c>
+      <c r="D32" t="n">
+        <v>21.24</v>
+      </c>
+      <c r="E32" t="n">
+        <v>120.45</v>
       </c>
     </row>
   </sheetData>
